--- a/biology/Botanique/Rosa_soulieana/Rosa_soulieana.xlsx
+++ b/biology/Botanique/Rosa_soulieana/Rosa_soulieana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa soulieana est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Synstylae, originaire de Chine occidentale (Anhui, Chongqing, Sichuan, Tibet et Yunnan), découverte par le père Jean-André Soulié[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa soulieana est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Synstylae, originaire de Chine occidentale (Anhui, Chongqing, Sichuan, Tibet et Yunnan), découverte par le père Jean-André Soulié.
 On le rencontre dans les régions de montagne entre 2500 et 3700 mètres d'altitude.
 On en connaît quatre variétés : 
 Rosa soulieana var. microphylla T. T. Yu &amp; T. C. Ku,
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est un arbuste de 3 à 4 mètres de haut, aux tiges arquées à aiguillons jaunâtres recourbés. 
 Les feuilles, imparipennées, sont composées de sept folioles et d'une belle couleur gris vert.
@@ -551,7 +565,9 @@
           <t>Variétés et hybrides cultivés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa soulieana 'Salicifolia', aux feuilles très allongées,
 'Kew Rambler' (1912 aux Kew Gardens : Rosa soulieana × 'Hiawantha'), semblable à Rosa soulieana à fleurs roses.</t>
